--- a/results/benchmarking/onnxruntime-python-1.14.0-docker-30-10-2023.xlsx
+++ b/results/benchmarking/onnxruntime-python-1.14.0-docker-30-10-2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
   <si>
     <t>Task type</t>
   </si>
@@ -54,15 +54,6 @@
     <t>ONNX Runtime Python</t>
   </si>
   <si>
-    <t>CPU family: x86_64, GPU: Undefined, RAM size: 65702408 kB, OS family: Linux, OS version: Linux-5.15.0-84-generic-x86_64-with-glibc2.29</t>
-  </si>
-  <si>
-    <t>CPU family: x86_64, GPU: Undefined, RAM size: 32731152 kB, OS family: Linux, OS version: Linux-5.15.0-84-generic-x86_64-with-glibc2.29</t>
-  </si>
-  <si>
-    <t>CPU family: x86_64, GPU: Undefined, RAM size: 526950192 kB, OS family: Linux, OS version: Linux-5.15.0-84-generic-x86_64-with-glibc2.29</t>
-  </si>
-  <si>
     <t>classification</t>
   </si>
   <si>
@@ -90,6 +81,9 @@
     <t>mobilenetv2-12</t>
   </si>
   <si>
+    <t>[8, 3, 224, 224]</t>
+  </si>
+  <si>
     <t>resnet152-v1-7</t>
   </si>
   <si>
@@ -106,6 +100,15 @@
   </si>
   <si>
     <t>zfnet512-12</t>
+  </si>
+  <si>
+    <t>CPU: Intel(R) Core(TM) i7-8700 CPU @ 3.20GHz, CPU family: x86_64, GPU: Undefined, RAM size: 65702408 kB, OS family: Linux, OS version: Linux-5.15.0-84-generic-x86_64-with-glibc2.29, Python version: 3.8.10</t>
+  </si>
+  <si>
+    <t>CPU: Intel(R) Xeon(R) Gold 6138 CPU @ 2.00GHz, CPU family: x86_64, GPU: Undefined, RAM size: 526950192 kB, OS family: Linux, OS version: Linux-5.15.0-84-generic-x86_64-with-glibc2.29, Python version: 3.8.10</t>
+  </si>
+  <si>
+    <t>CPU: Intel(R) Core(TM) i3-8100 CPU @ 3.60GHz, CPU family: x86_64, GPU: Undefined, RAM size: 32731152 kB, OS family: Linux, OS version: Linux-5.15.0-84-generic-x86_64-with-glibc2.29, Python version: 3.8.10</t>
   </si>
 </sst>
 </file>
@@ -183,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -197,17 +200,128 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="64">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1120,6 +1234,114 @@
           <color auto="1"/>
         </top>
         <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
           <color auto="1"/>
         </bottom>
         <vertical/>
@@ -1444,13 +1666,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,79 +1682,79 @@
     <col min="4" max="4" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="6"/>
+      <c r="F1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="6"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1553,11 +1775,11 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1578,11 +1800,11 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1603,17 +1825,17 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1638,15 +1860,15 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1671,15 +1893,15 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -1704,15 +1926,15 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1737,15 +1959,15 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -1770,15 +1992,15 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -1803,446 +2025,508 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F13" s="3">
-        <v>30.170999999999999</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>24</v>
+        <v>359.12200000000001</v>
+      </c>
+      <c r="G13" s="3">
+        <v>820.26</v>
       </c>
       <c r="H13" s="3">
-        <v>38.393000000000001</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>24</v>
+        <v>845.57500000000005</v>
+      </c>
+      <c r="I13" s="3">
+        <v>689.48900000000003</v>
       </c>
       <c r="J13" s="3">
-        <v>17.803999999999998</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>24</v>
+        <v>272.52600000000001</v>
+      </c>
+      <c r="K13" s="3">
+        <v>501.23500000000001</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="3">
-        <v>501.63299999999998</v>
-      </c>
-      <c r="G14" s="3">
-        <v>799.99300000000005</v>
+        <v>30.170999999999999</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="H14" s="3">
-        <v>143.631</v>
-      </c>
-      <c r="I14" s="3">
-        <v>216.09800000000001</v>
+        <v>38.393000000000001</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="J14" s="3">
-        <v>363.67200000000003</v>
-      </c>
-      <c r="K14" s="3">
-        <v>514.57899999999995</v>
+        <v>17.803999999999998</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F15" s="3">
-        <v>760.21900000000005</v>
-      </c>
-      <c r="G15" s="3">
-        <v>734.65</v>
+        <v>28.812000000000001</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="H15" s="3">
-        <v>366.03899999999999</v>
-      </c>
-      <c r="I15" s="3">
-        <v>308.41399999999999</v>
+        <v>103.72</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="J15" s="3">
-        <v>445.10599999999999</v>
-      </c>
-      <c r="K15" s="3">
-        <v>469.72699999999998</v>
+        <v>17.803000000000001</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" s="3">
-        <v>19.004999999999999</v>
+        <v>501.63299999999998</v>
       </c>
       <c r="G16" s="3">
-        <v>34.137999999999998</v>
+        <v>799.99300000000005</v>
       </c>
       <c r="H16" s="3">
-        <v>44.622999999999998</v>
+        <v>143.631</v>
       </c>
       <c r="I16" s="3">
-        <v>103.88</v>
+        <v>216.09800000000001</v>
       </c>
       <c r="J16" s="3">
-        <v>11.56</v>
+        <v>363.67200000000003</v>
       </c>
       <c r="K16" s="3">
-        <v>21.149000000000001</v>
+        <v>514.57899999999995</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
       </c>
       <c r="F17" s="3">
+        <v>760.21900000000005</v>
+      </c>
+      <c r="G17" s="3">
+        <v>734.65</v>
+      </c>
+      <c r="H17" s="3">
+        <v>366.03899999999999</v>
+      </c>
+      <c r="I17" s="3">
+        <v>308.41399999999999</v>
+      </c>
+      <c r="J17" s="3">
+        <v>445.10599999999999</v>
+      </c>
+      <c r="K17" s="3">
+        <v>469.72699999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>19.004999999999999</v>
+      </c>
+      <c r="G18" s="3">
+        <v>34.137999999999998</v>
+      </c>
+      <c r="H18" s="3">
+        <v>44.622999999999998</v>
+      </c>
+      <c r="I18" s="3">
+        <v>103.88</v>
+      </c>
+      <c r="J18" s="3">
+        <v>11.56</v>
+      </c>
+      <c r="K18" s="3">
+        <v>21.149000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
         <v>59.433</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G19" s="3">
         <v>97.622</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H19" s="3">
         <v>82.263999999999996</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I19" s="3">
         <v>116.01900000000001</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J19" s="3">
         <v>44.234999999999999</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K19" s="3">
         <v>68.858999999999995</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="19">
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A1:A6"/>
-    <mergeCell ref="B1:B6"/>
-    <mergeCell ref="C1:C6"/>
-    <mergeCell ref="D1:D6"/>
-    <mergeCell ref="E1:E6"/>
-    <mergeCell ref="A7:A17"/>
+    <mergeCell ref="A7:A19"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A1:A6"/>
+    <mergeCell ref="B1:B6"/>
+    <mergeCell ref="C1:C6"/>
+    <mergeCell ref="D1:D6"/>
+    <mergeCell ref="E1:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="A1">
-    <cfRule type="notContainsBlanks" dxfId="51" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="57" priority="11">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="notContainsBlanks" dxfId="50" priority="26">
-      <formula>LEN(TRIM(A17))&gt;0</formula>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="notContainsBlanks" dxfId="56" priority="20">
+      <formula>LEN(TRIM(A19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A5">
-    <cfRule type="notContainsBlanks" dxfId="49" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="55" priority="10">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="notContainsBlanks" dxfId="48" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="54" priority="12">
       <formula>LEN(TRIM(A6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="notContainsBlanks" dxfId="47" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="53" priority="19">
       <formula>LEN(TRIM(A7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A16">
-    <cfRule type="notContainsBlanks" dxfId="46" priority="24">
+  <conditionalFormatting sqref="A8:A18">
+    <cfRule type="notContainsBlanks" dxfId="52" priority="18">
       <formula>LEN(TRIM(A8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:D17">
-    <cfRule type="notContainsBlanks" dxfId="45" priority="22">
-      <formula>LEN(TRIM(B17))&gt;0</formula>
+  <conditionalFormatting sqref="B19:D19">
+    <cfRule type="notContainsBlanks" dxfId="51" priority="16">
+      <formula>LEN(TRIM(B19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="notContainsBlanks" dxfId="44" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="50" priority="7">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:D6">
-    <cfRule type="notContainsBlanks" dxfId="43" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="49" priority="8">
       <formula>LEN(TRIM(B6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:D7">
-    <cfRule type="notContainsBlanks" dxfId="42" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="48" priority="15">
       <formula>LEN(TRIM(B7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="notContainsBlanks" dxfId="41" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="47" priority="13">
       <formula>LEN(TRIM(E1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="notContainsBlanks" dxfId="40" priority="28">
-      <formula>LEN(TRIM(E17))&gt;0</formula>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="notContainsBlanks" dxfId="46" priority="22">
+      <formula>LEN(TRIM(E19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="notContainsBlanks" dxfId="39" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="45" priority="9">
       <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="notContainsBlanks" dxfId="38" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="44" priority="14">
       <formula>LEN(TRIM(E6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="notContainsBlanks" dxfId="37" priority="27">
+    <cfRule type="notContainsBlanks" dxfId="43" priority="21">
       <formula>LEN(TRIM(E7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E16">
-    <cfRule type="notContainsBlanks" dxfId="36" priority="23">
+  <conditionalFormatting sqref="E8:E18">
+    <cfRule type="notContainsBlanks" dxfId="42" priority="17">
       <formula>LEN(TRIM(E8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="notContainsBlanks" dxfId="40" priority="32">
+      <formula>LEN(TRIM(H19))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H5">
+    <cfRule type="notContainsBlanks" dxfId="39" priority="24">
+      <formula>LEN(TRIM(H2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="notContainsBlanks" dxfId="38" priority="26">
+      <formula>LEN(TRIM(H6))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="notContainsBlanks" dxfId="37" priority="31">
+      <formula>LEN(TRIM(H7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H18">
+    <cfRule type="notContainsBlanks" dxfId="36" priority="30">
+      <formula>LEN(TRIM(H8))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="notContainsBlanks" dxfId="34" priority="34">
+      <formula>LEN(TRIM(I19))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I5">
+    <cfRule type="notContainsBlanks" dxfId="33" priority="23">
+      <formula>LEN(TRIM(I2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="28">
+      <formula>LEN(TRIM(I6))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="33">
+      <formula>LEN(TRIM(I7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:I18">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="29">
+      <formula>LEN(TRIM(I8))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="44">
+      <formula>LEN(TRIM(F19))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F5">
+    <cfRule type="notContainsBlanks" dxfId="27" priority="36">
+      <formula>LEN(TRIM(F2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="notContainsBlanks" dxfId="26" priority="38">
+      <formula>LEN(TRIM(F6))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="43">
+      <formula>LEN(TRIM(F7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F18">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="42">
+      <formula>LEN(TRIM(F8))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="46">
+      <formula>LEN(TRIM(G19))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="35">
+      <formula>LEN(TRIM(G2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="40">
+      <formula>LEN(TRIM(G6))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="45">
+      <formula>LEN(TRIM(G7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:G18">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="41">
+      <formula>LEN(TRIM(G8))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="56">
+      <formula>LEN(TRIM(J19))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="48">
+      <formula>LEN(TRIM(J2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="50">
+      <formula>LEN(TRIM(J6))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="55">
+      <formula>LEN(TRIM(J7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:J18">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="54">
+      <formula>LEN(TRIM(J8))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="58">
+      <formula>LEN(TRIM(K19))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K5">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="47">
+      <formula>LEN(TRIM(K2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="52">
+      <formula>LEN(TRIM(K6))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="57">
+      <formula>LEN(TRIM(K7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:K18">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="53">
+      <formula>LEN(TRIM(K8))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="notContainsBlanks" dxfId="35" priority="31">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="notContainsBlanks" dxfId="34" priority="38">
-      <formula>LEN(TRIM(F17))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F5">
-    <cfRule type="notContainsBlanks" dxfId="33" priority="30">
-      <formula>LEN(TRIM(F2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="notContainsBlanks" dxfId="32" priority="32">
-      <formula>LEN(TRIM(F6))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="notContainsBlanks" dxfId="31" priority="37">
-      <formula>LEN(TRIM(F7))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F16">
-    <cfRule type="notContainsBlanks" dxfId="30" priority="36">
-      <formula>LEN(TRIM(F8))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="notContainsBlanks" dxfId="29" priority="33">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="6">
       <formula>LEN(TRIM(G1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="notContainsBlanks" dxfId="28" priority="40">
-      <formula>LEN(TRIM(G17))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G5">
-    <cfRule type="notContainsBlanks" dxfId="27" priority="29">
-      <formula>LEN(TRIM(G2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="notContainsBlanks" dxfId="26" priority="34">
-      <formula>LEN(TRIM(G6))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="notContainsBlanks" dxfId="25" priority="39">
-      <formula>LEN(TRIM(G7))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G16">
-    <cfRule type="notContainsBlanks" dxfId="24" priority="35">
-      <formula>LEN(TRIM(G8))&gt;0</formula>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="3">
+      <formula>LEN(TRIM(H1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="4">
+      <formula>LEN(TRIM(I1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="notContainsBlanks" dxfId="23" priority="43">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(J1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
-    <cfRule type="notContainsBlanks" dxfId="22" priority="50">
-      <formula>LEN(TRIM(J17))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J5">
-    <cfRule type="notContainsBlanks" dxfId="21" priority="42">
-      <formula>LEN(TRIM(J2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="notContainsBlanks" dxfId="20" priority="44">
-      <formula>LEN(TRIM(J6))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="notContainsBlanks" dxfId="19" priority="49">
-      <formula>LEN(TRIM(J7))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J16">
-    <cfRule type="notContainsBlanks" dxfId="18" priority="48">
-      <formula>LEN(TRIM(J8))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="notContainsBlanks" dxfId="17" priority="45">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(K1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="notContainsBlanks" dxfId="16" priority="52">
-      <formula>LEN(TRIM(K17))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K5">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="41">
-      <formula>LEN(TRIM(K2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="46">
-      <formula>LEN(TRIM(K6))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="51">
-      <formula>LEN(TRIM(K7))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K16">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="47">
-      <formula>LEN(TRIM(K8))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="3">
-      <formula>LEN(TRIM(H1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="10">
-      <formula>LEN(TRIM(H17))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H5">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="2">
-      <formula>LEN(TRIM(H2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="4">
-      <formula>LEN(TRIM(H6))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="9">
-      <formula>LEN(TRIM(H7))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H16">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="8">
-      <formula>LEN(TRIM(H8))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
-      <formula>LEN(TRIM(I1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="12">
-      <formula>LEN(TRIM(I17))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I5">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="1">
-      <formula>LEN(TRIM(I2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="6">
-      <formula>LEN(TRIM(I6))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="11">
-      <formula>LEN(TRIM(I7))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I16">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="7">
-      <formula>LEN(TRIM(I8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
